--- a/instance/zyjk/platform/rule/数据交换规则.xlsx
+++ b/instance/zyjk/platform/rule/数据交换规则.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/platform/rule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA760C5A-8096-4148-9A8B-A33484500494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D56651-4F0C-3E40-828C-FC2FB30CC165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="730" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非空" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="1004">
   <si>
     <t>测试结果</t>
   </si>
@@ -3052,6 +3052,10 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3407,13 +3411,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3696,7 +3700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L475"/>
   <sheetViews>
-    <sheetView topLeftCell="A456" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -4182,7 +4186,7 @@
       <c r="I16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="61" t="s">
+      <c r="J16" s="59" t="s">
         <v>63</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -4812,7 +4816,7 @@
       <c r="I37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="59" t="s">
+      <c r="J37" s="61" t="s">
         <v>112</v>
       </c>
       <c r="K37" s="4" t="s">
@@ -5112,7 +5116,7 @@
       <c r="I47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="61" t="s">
+      <c r="J47" s="59" t="s">
         <v>131</v>
       </c>
       <c r="K47" s="4" t="s">
@@ -6222,7 +6226,7 @@
       <c r="I84" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J84" s="61" t="s">
+      <c r="J84" s="59" t="s">
         <v>131</v>
       </c>
       <c r="K84" s="4" t="s">
@@ -6976,7 +6980,7 @@
       <c r="I109" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J109" s="59" t="s">
+      <c r="J109" s="61" t="s">
         <v>242</v>
       </c>
       <c r="K109" s="4" t="s">
@@ -7396,7 +7400,7 @@
       <c r="I123" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J123" s="59" t="s">
+      <c r="J123" s="61" t="s">
         <v>262</v>
       </c>
       <c r="K123" s="4" t="s">
@@ -7816,7 +7820,7 @@
       <c r="I137" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J137" s="59" t="s">
+      <c r="J137" s="61" t="s">
         <v>291</v>
       </c>
       <c r="K137" s="4" t="s">
@@ -8236,7 +8240,7 @@
       <c r="I151" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J151" s="59" t="s">
+      <c r="J151" s="61" t="s">
         <v>313</v>
       </c>
       <c r="K151" s="4" t="s">
@@ -8716,7 +8720,7 @@
       <c r="I167" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J167" s="59" t="s">
+      <c r="J167" s="61" t="s">
         <v>242</v>
       </c>
       <c r="K167" s="4" t="s">
@@ -9796,7 +9800,7 @@
       <c r="I203" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J203" s="59" t="s">
+      <c r="J203" s="61" t="s">
         <v>371</v>
       </c>
       <c r="K203" s="4" t="s">
@@ -10306,7 +10310,7 @@
       <c r="I220" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J220" s="59" t="s">
+      <c r="J220" s="61" t="s">
         <v>313</v>
       </c>
       <c r="K220" s="4" t="s">
@@ -10816,7 +10820,7 @@
       <c r="I237" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J237" s="59" t="s">
+      <c r="J237" s="61" t="s">
         <v>411</v>
       </c>
       <c r="K237" s="4" t="s">
@@ -11356,7 +11360,7 @@
       <c r="I255" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J255" s="59" t="s">
+      <c r="J255" s="61" t="s">
         <v>242</v>
       </c>
       <c r="K255" s="4" t="s">
@@ -13404,7 +13408,7 @@
       <c r="I323" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J323" s="59" t="s">
+      <c r="J323" s="61" t="s">
         <v>291</v>
       </c>
       <c r="K323" s="4" t="s">
@@ -15178,7 +15182,7 @@
       <c r="I382" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J382" s="59" t="s">
+      <c r="J382" s="61" t="s">
         <v>645</v>
       </c>
       <c r="K382" s="4" t="s">
@@ -16438,7 +16442,7 @@
       <c r="I424" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J424" s="59" t="s">
+      <c r="J424" s="61" t="s">
         <v>722</v>
       </c>
       <c r="K424" s="4" t="s">
@@ -17008,7 +17012,7 @@
       <c r="I443" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J443" s="59" t="s">
+      <c r="J443" s="61" t="s">
         <v>754</v>
       </c>
       <c r="K443" s="4" t="s">
@@ -17398,7 +17402,7 @@
       <c r="I456" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J456" s="59" t="s">
+      <c r="J456" s="61" t="s">
         <v>754</v>
       </c>
       <c r="K456" s="4" t="s">
@@ -17976,6 +17980,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J382:J383"/>
+    <mergeCell ref="J456:J457"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J220:J221"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J323:J324"/>
+    <mergeCell ref="J443:J444"/>
+    <mergeCell ref="J424:J425"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="J137:J138"/>
     <mergeCell ref="J66:J67"/>
@@ -17986,16 +18000,6 @@
     <mergeCell ref="J194:J195"/>
     <mergeCell ref="J203:J204"/>
     <mergeCell ref="J84:J85"/>
-    <mergeCell ref="J382:J383"/>
-    <mergeCell ref="J456:J457"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J220:J221"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J323:J324"/>
-    <mergeCell ref="J443:J444"/>
-    <mergeCell ref="J424:J425"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26151,6 +26155,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="C62:C63"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C24:C26"/>
@@ -26166,8 +26172,6 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="C62:C63"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26183,6 +26187,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="49" t="s">
@@ -26618,15 +26625,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="20.6640625" style="44" customWidth="1"/>
     <col min="4" max="4" width="25" style="44" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26699,7 +26707,7 @@
         <v>219</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="L2" s="53" t="s">
         <v>967</v>
